--- a/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
+++ b/Finalize logic tree/Dodge_Grand Caravan_No heat from HVAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8BF47-A9A9-4DED-B275-53856C3752F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4019E3-2DB9-4AA1-BE35-737F9C333969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{48576F27-1784-45A5-991B-85435575C836}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Cold</t>
   </si>
   <si>
-    <t>Hot(Red)</t>
-  </si>
-  <si>
     <t>Fluctuates</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Slightly low</t>
   </si>
   <si>
-    <t>Very low(Empty)</t>
-  </si>
-  <si>
     <t>Possible_Problem:40% Plugged heater core
 35% Damaged Thermostat
 15% Water Pump operation
@@ -233,6 +227,12 @@
   </si>
   <si>
     <t>Problem:Does the Air Conditioner (A/C) fan seem to become louder (or blow more air) when you turn the fan up?</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Very low</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239E515E-EDA5-4ADE-8473-A217B28F0DBF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,216 +625,216 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
